--- a/INTLINE/data/536/BKPM/FDI.xlsx
+++ b/INTLINE/data/536/BKPM/FDI.xlsx
@@ -5271,19 +5271,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Asia</t>
-  </si>
-  <si>
     <t>Amerika</t>
-  </si>
-  <si>
-    <t>Afrika</t>
   </si>
   <si>
     <t>Eropa</t>
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>Asia</t>
   </si>
   <si>
     <t>Joint</t>
@@ -28080,13 +28080,13 @@
     </row>
     <row r="198" spans="1:47">
       <c r="A198" s="17">
-        <v>44728</v>
+        <v>44740</v>
       </c>
       <c r="X198" s="18">
         <v>1</v>
       </c>
       <c r="AU198" s="19">
-        <v>0.64245370</v>
+        <v>0.32211805</v>
       </c>
     </row>
   </sheetData>
@@ -28182,19 +28182,19 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>30509.900000</v>
+      </c>
+      <c r="C2">
+        <v>181246.200000</v>
+      </c>
+      <c r="D2">
+        <v>538.000000</v>
+      </c>
+      <c r="E2">
+        <v>654.900000</v>
+      </c>
+      <c r="F2">
         <v>480639.500000</v>
-      </c>
-      <c r="C2">
-        <v>30509.900000</v>
-      </c>
-      <c r="D2">
-        <v>654.900000</v>
-      </c>
-      <c r="E2">
-        <v>181246.200000</v>
-      </c>
-      <c r="F2">
-        <v>538.000000</v>
       </c>
       <c r="G2">
         <v>14327.000000</v>
@@ -28205,16 +28205,16 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>87588.500000</v>
+      </c>
+      <c r="C3">
+        <v>226047.400000</v>
+      </c>
+      <c r="D3">
+        <v>1873.300000</v>
+      </c>
+      <c r="F3">
         <v>664660.200000</v>
-      </c>
-      <c r="C3">
-        <v>87588.500000</v>
-      </c>
-      <c r="E3">
-        <v>226047.400000</v>
-      </c>
-      <c r="F3">
-        <v>1873.300000</v>
       </c>
       <c r="G3">
         <v>114279.100000</v>
@@ -28225,16 +28225,16 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>25796.000000</v>
+      </c>
+      <c r="C4">
+        <v>124642.600000</v>
+      </c>
+      <c r="D4">
+        <v>13137.900000</v>
+      </c>
+      <c r="F4">
         <v>4426146.300000</v>
-      </c>
-      <c r="C4">
-        <v>25796.000000</v>
-      </c>
-      <c r="E4">
-        <v>124642.600000</v>
-      </c>
-      <c r="F4">
-        <v>13137.900000</v>
       </c>
       <c r="G4">
         <v>17529.700000</v>
@@ -28245,19 +28245,19 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>11164050.100000</v>
+      </c>
+      <c r="C5">
+        <v>220031.600000</v>
+      </c>
+      <c r="D5">
+        <v>23082.900000</v>
+      </c>
+      <c r="E5">
+        <v>9217.000000</v>
+      </c>
+      <c r="F5">
         <v>1290305.200000</v>
-      </c>
-      <c r="C5">
-        <v>11164050.100000</v>
-      </c>
-      <c r="D5">
-        <v>9217.000000</v>
-      </c>
-      <c r="E5">
-        <v>220031.600000</v>
-      </c>
-      <c r="F5">
-        <v>23082.900000</v>
       </c>
       <c r="G5">
         <v>547507.800000</v>
@@ -28268,16 +28268,16 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>269907.900000</v>
+      </c>
+      <c r="C6">
+        <v>403438.800000</v>
+      </c>
+      <c r="D6">
+        <v>17881.100000</v>
+      </c>
+      <c r="F6">
         <v>12466651.900000</v>
-      </c>
-      <c r="C6">
-        <v>269907.900000</v>
-      </c>
-      <c r="E6">
-        <v>403438.800000</v>
-      </c>
-      <c r="F6">
-        <v>17881.100000</v>
       </c>
       <c r="G6">
         <v>591335.200000</v>
@@ -28288,16 +28288,16 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>293496.800000</v>
+      </c>
+      <c r="C7">
+        <v>1077181.100000</v>
+      </c>
+      <c r="D7">
+        <v>52480.300000</v>
+      </c>
+      <c r="F7">
         <v>2993782.600000</v>
-      </c>
-      <c r="C7">
-        <v>293496.800000</v>
-      </c>
-      <c r="E7">
-        <v>1077181.100000</v>
-      </c>
-      <c r="F7">
-        <v>52480.300000</v>
       </c>
       <c r="G7">
         <v>2741752.000000</v>
@@ -28308,16 +28308,16 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <v>327673.900000</v>
+      </c>
+      <c r="C8">
+        <v>747964.200000</v>
+      </c>
+      <c r="D8">
+        <v>99211.700000</v>
+      </c>
+      <c r="F8">
         <v>4850300.500000</v>
-      </c>
-      <c r="C8">
-        <v>327673.900000</v>
-      </c>
-      <c r="E8">
-        <v>747964.200000</v>
-      </c>
-      <c r="F8">
-        <v>99211.700000</v>
       </c>
       <c r="G8">
         <v>668514.200000</v>
@@ -28328,19 +28328,19 @@
         <v>9</v>
       </c>
       <c r="B9">
+        <v>170849.800000</v>
+      </c>
+      <c r="C9">
+        <v>526206.200000</v>
+      </c>
+      <c r="D9">
+        <v>45036.400000</v>
+      </c>
+      <c r="E9">
+        <v>31238127.000000</v>
+      </c>
+      <c r="F9">
         <v>1948743.100000</v>
-      </c>
-      <c r="C9">
-        <v>170849.800000</v>
-      </c>
-      <c r="D9">
-        <v>31238127.000000</v>
-      </c>
-      <c r="E9">
-        <v>526206.200000</v>
-      </c>
-      <c r="F9">
-        <v>45036.400000</v>
       </c>
       <c r="G9">
         <v>358958.900000</v>
@@ -28351,16 +28351,16 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>304103.700000</v>
+      </c>
+      <c r="C10">
+        <v>731747.600000</v>
+      </c>
+      <c r="D10">
+        <v>96756.400000</v>
+      </c>
+      <c r="F10">
         <v>10403977.300000</v>
-      </c>
-      <c r="C10">
-        <v>304103.700000</v>
-      </c>
-      <c r="E10">
-        <v>731747.600000</v>
-      </c>
-      <c r="F10">
-        <v>96756.400000</v>
       </c>
       <c r="G10">
         <v>727635.400000</v>
@@ -28371,19 +28371,19 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>123354.500000</v>
+      </c>
+      <c r="C11">
+        <v>1302913.500000</v>
+      </c>
+      <c r="D11">
+        <v>390253.000000</v>
+      </c>
+      <c r="E11">
+        <v>257003.000000</v>
+      </c>
+      <c r="F11">
         <v>32158949.300000</v>
-      </c>
-      <c r="C11">
-        <v>123354.500000</v>
-      </c>
-      <c r="D11">
-        <v>257003.000000</v>
-      </c>
-      <c r="E11">
-        <v>1302913.500000</v>
-      </c>
-      <c r="F11">
-        <v>390253.000000</v>
       </c>
       <c r="G11">
         <v>1033101.800000</v>
@@ -28394,19 +28394,19 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>1199853.800000</v>
+      </c>
+      <c r="C12">
+        <v>1811517.800000</v>
+      </c>
+      <c r="D12">
+        <v>69620.400000</v>
+      </c>
+      <c r="E12">
+        <v>52834.100000</v>
+      </c>
+      <c r="F12">
         <v>3454111.800000</v>
-      </c>
-      <c r="C12">
-        <v>1199853.800000</v>
-      </c>
-      <c r="D12">
-        <v>52834.100000</v>
-      </c>
-      <c r="E12">
-        <v>1811517.800000</v>
-      </c>
-      <c r="F12">
-        <v>69620.400000</v>
       </c>
       <c r="G12">
         <v>4632473.000000</v>
@@ -28417,19 +28417,19 @@
         <v>13</v>
       </c>
       <c r="B13">
+        <v>777583.900000</v>
+      </c>
+      <c r="C13">
+        <v>154796.500000</v>
+      </c>
+      <c r="D13">
+        <v>46487.300000</v>
+      </c>
+      <c r="E13">
+        <v>10583.200000</v>
+      </c>
+      <c r="F13">
         <v>4502090.200000</v>
-      </c>
-      <c r="C13">
-        <v>777583.900000</v>
-      </c>
-      <c r="D13">
-        <v>10583.200000</v>
-      </c>
-      <c r="E13">
-        <v>154796.500000</v>
-      </c>
-      <c r="F13">
-        <v>46487.300000</v>
       </c>
       <c r="G13">
         <v>2470226.300000</v>
@@ -28440,19 +28440,19 @@
         <v>14</v>
       </c>
       <c r="B14">
+        <v>77004.900000</v>
+      </c>
+      <c r="C14">
+        <v>862621.300000</v>
+      </c>
+      <c r="D14">
+        <v>330734.300000</v>
+      </c>
+      <c r="E14">
+        <v>6253.200000</v>
+      </c>
+      <c r="F14">
         <v>1019703.500000</v>
-      </c>
-      <c r="C14">
-        <v>77004.900000</v>
-      </c>
-      <c r="D14">
-        <v>6253.200000</v>
-      </c>
-      <c r="E14">
-        <v>862621.300000</v>
-      </c>
-      <c r="F14">
-        <v>330734.300000</v>
       </c>
       <c r="G14">
         <v>852938.100000</v>
@@ -28463,19 +28463,19 @@
         <v>15</v>
       </c>
       <c r="B15">
+        <v>154180.200000</v>
+      </c>
+      <c r="C15">
+        <v>2979598.900000</v>
+      </c>
+      <c r="D15">
+        <v>5574.700000</v>
+      </c>
+      <c r="E15">
+        <v>1847806.900000</v>
+      </c>
+      <c r="F15">
         <v>1494957.800000</v>
-      </c>
-      <c r="C15">
-        <v>154180.200000</v>
-      </c>
-      <c r="D15">
-        <v>1847806.900000</v>
-      </c>
-      <c r="E15">
-        <v>2979598.900000</v>
-      </c>
-      <c r="F15">
-        <v>5574.700000</v>
       </c>
       <c r="G15">
         <v>409727.600000</v>
@@ -28486,19 +28486,19 @@
         <v>16</v>
       </c>
       <c r="B16">
+        <v>246987.800000</v>
+      </c>
+      <c r="C16">
+        <v>651632.100000</v>
+      </c>
+      <c r="D16">
+        <v>70163.000000</v>
+      </c>
+      <c r="E16">
+        <v>332560.300000</v>
+      </c>
+      <c r="F16">
         <v>2158107.200000</v>
-      </c>
-      <c r="C16">
-        <v>246987.800000</v>
-      </c>
-      <c r="D16">
-        <v>332560.300000</v>
-      </c>
-      <c r="E16">
-        <v>651632.100000</v>
-      </c>
-      <c r="F16">
-        <v>70163.000000</v>
       </c>
       <c r="G16">
         <v>443840.300000</v>
@@ -28509,19 +28509,19 @@
         <v>17</v>
       </c>
       <c r="B17">
+        <v>743920.900000</v>
+      </c>
+      <c r="C17">
+        <v>1338529.500000</v>
+      </c>
+      <c r="D17">
+        <v>57308.200000</v>
+      </c>
+      <c r="E17">
+        <v>1013517.500000</v>
+      </c>
+      <c r="F17">
         <v>3743432.300000</v>
-      </c>
-      <c r="C17">
-        <v>743920.900000</v>
-      </c>
-      <c r="D17">
-        <v>1013517.500000</v>
-      </c>
-      <c r="E17">
-        <v>1338529.500000</v>
-      </c>
-      <c r="F17">
-        <v>57308.200000</v>
       </c>
       <c r="G17">
         <v>2088639.900000</v>
@@ -28532,19 +28532,19 @@
         <v>18</v>
       </c>
       <c r="B18">
+        <v>536436.100000</v>
+      </c>
+      <c r="C18">
+        <v>689738.100000</v>
+      </c>
+      <c r="D18">
+        <v>9333.000000</v>
+      </c>
+      <c r="E18">
+        <v>698213.000000</v>
+      </c>
+      <c r="F18">
         <v>2515155.100000</v>
-      </c>
-      <c r="C18">
-        <v>536436.100000</v>
-      </c>
-      <c r="D18">
-        <v>698213.000000</v>
-      </c>
-      <c r="E18">
-        <v>689738.100000</v>
-      </c>
-      <c r="F18">
-        <v>9333.000000</v>
       </c>
       <c r="G18">
         <v>1615011.000000</v>
@@ -28555,19 +28555,19 @@
         <v>19</v>
       </c>
       <c r="B19">
+        <v>506281.600000</v>
+      </c>
+      <c r="C19">
+        <v>4681296.700000</v>
+      </c>
+      <c r="D19">
+        <v>196157.000000</v>
+      </c>
+      <c r="E19">
+        <v>511084.800000</v>
+      </c>
+      <c r="F19">
         <v>2653755.500000</v>
-      </c>
-      <c r="C19">
-        <v>506281.600000</v>
-      </c>
-      <c r="D19">
-        <v>511084.800000</v>
-      </c>
-      <c r="E19">
-        <v>4681296.700000</v>
-      </c>
-      <c r="F19">
-        <v>196157.000000</v>
       </c>
       <c r="G19">
         <v>1860508.200000</v>
@@ -28578,19 +28578,19 @@
         <v>20</v>
       </c>
       <c r="B20">
+        <v>438857.000000</v>
+      </c>
+      <c r="C20">
+        <v>769821.000000</v>
+      </c>
+      <c r="D20">
+        <v>167722.100000</v>
+      </c>
+      <c r="E20">
+        <v>65963.400000</v>
+      </c>
+      <c r="F20">
         <v>10267600.500000</v>
-      </c>
-      <c r="C20">
-        <v>438857.000000</v>
-      </c>
-      <c r="D20">
-        <v>65963.400000</v>
-      </c>
-      <c r="E20">
-        <v>769821.000000</v>
-      </c>
-      <c r="F20">
-        <v>167722.100000</v>
       </c>
       <c r="G20">
         <v>5851096.400000</v>
@@ -28601,19 +28601,19 @@
         <v>21</v>
       </c>
       <c r="B21">
+        <v>397922.900000</v>
+      </c>
+      <c r="C21">
+        <v>4781199.600000</v>
+      </c>
+      <c r="D21">
+        <v>85164.300000</v>
+      </c>
+      <c r="E21">
+        <v>495996.800000</v>
+      </c>
+      <c r="F21">
         <v>2776966.800000</v>
-      </c>
-      <c r="C21">
-        <v>397922.900000</v>
-      </c>
-      <c r="D21">
-        <v>495996.800000</v>
-      </c>
-      <c r="E21">
-        <v>4781199.600000</v>
-      </c>
-      <c r="F21">
-        <v>85164.300000</v>
       </c>
       <c r="G21">
         <v>4037266.800000</v>
@@ -28624,19 +28624,19 @@
         <v>22</v>
       </c>
       <c r="B22">
+        <v>2714986.000000</v>
+      </c>
+      <c r="C22">
+        <v>1302276.900000</v>
+      </c>
+      <c r="D22">
+        <v>239233.500000</v>
+      </c>
+      <c r="E22">
+        <v>149992.600000</v>
+      </c>
+      <c r="F22">
         <v>7977848.500000</v>
-      </c>
-      <c r="C22">
-        <v>2714986.000000</v>
-      </c>
-      <c r="D22">
-        <v>149992.600000</v>
-      </c>
-      <c r="E22">
-        <v>1302276.900000</v>
-      </c>
-      <c r="F22">
-        <v>239233.500000</v>
       </c>
       <c r="G22">
         <v>3830434.800000</v>
@@ -28647,19 +28647,19 @@
         <v>23</v>
       </c>
       <c r="B23">
+        <v>2018905.700000</v>
+      </c>
+      <c r="C23">
+        <v>2179945.600000</v>
+      </c>
+      <c r="D23">
+        <v>112134.700000</v>
+      </c>
+      <c r="E23">
+        <v>202129.800000</v>
+      </c>
+      <c r="F23">
         <v>9135458.300000</v>
-      </c>
-      <c r="C23">
-        <v>2018905.700000</v>
-      </c>
-      <c r="D23">
-        <v>202129.800000</v>
-      </c>
-      <c r="E23">
-        <v>2179945.600000</v>
-      </c>
-      <c r="F23">
-        <v>112134.700000</v>
       </c>
       <c r="G23">
         <v>5825957.400000</v>
@@ -28670,19 +28670,19 @@
         <v>24</v>
       </c>
       <c r="B24">
+        <v>2139499.800000</v>
+      </c>
+      <c r="C24">
+        <v>2573885.700000</v>
+      </c>
+      <c r="D24">
+        <v>745419.500000</v>
+      </c>
+      <c r="E24">
+        <v>1195698.900000</v>
+      </c>
+      <c r="F24">
         <v>11098398.100000</v>
-      </c>
-      <c r="C24">
-        <v>2139499.800000</v>
-      </c>
-      <c r="D24">
-        <v>1195698.900000</v>
-      </c>
-      <c r="E24">
-        <v>2573885.700000</v>
-      </c>
-      <c r="F24">
-        <v>745419.500000</v>
       </c>
       <c r="G24">
         <v>6811768.200000</v>
@@ -28693,19 +28693,19 @@
         <v>25</v>
       </c>
       <c r="B25">
+        <v>3748857.500000</v>
+      </c>
+      <c r="C25">
+        <v>2566571.300000</v>
+      </c>
+      <c r="D25">
+        <v>233527.800000</v>
+      </c>
+      <c r="E25">
+        <v>801737.400000</v>
+      </c>
+      <c r="F25">
         <v>13798200.700000</v>
-      </c>
-      <c r="C25">
-        <v>3748857.500000</v>
-      </c>
-      <c r="D25">
-        <v>801737.400000</v>
-      </c>
-      <c r="E25">
-        <v>2566571.300000</v>
-      </c>
-      <c r="F25">
-        <v>233527.800000</v>
       </c>
       <c r="G25">
         <v>7467375.000000</v>
@@ -28716,19 +28716,19 @@
         <v>26</v>
       </c>
       <c r="B26">
+        <v>2120087.700000</v>
+      </c>
+      <c r="C26">
+        <v>3983185.400000</v>
+      </c>
+      <c r="D26">
+        <v>684914.500000</v>
+      </c>
+      <c r="E26">
+        <v>663935.900000</v>
+      </c>
+      <c r="F26">
         <v>13458182.800000</v>
-      </c>
-      <c r="C26">
-        <v>2120087.700000</v>
-      </c>
-      <c r="D26">
-        <v>663935.900000</v>
-      </c>
-      <c r="E26">
-        <v>3983185.400000</v>
-      </c>
-      <c r="F26">
-        <v>684914.500000</v>
       </c>
       <c r="G26">
         <v>7619392.200000</v>
@@ -28739,19 +28739,19 @@
         <v>27</v>
       </c>
       <c r="B27">
+        <v>1773390.700000</v>
+      </c>
+      <c r="C27">
+        <v>2326820.100000</v>
+      </c>
+      <c r="D27">
+        <v>205153.300000</v>
+      </c>
+      <c r="E27">
+        <v>192825.200000</v>
+      </c>
+      <c r="F27">
         <v>15043744.400000</v>
-      </c>
-      <c r="C27">
-        <v>1773390.700000</v>
-      </c>
-      <c r="D27">
-        <v>192825.200000</v>
-      </c>
-      <c r="E27">
-        <v>2326820.100000</v>
-      </c>
-      <c r="F27">
-        <v>205153.300000</v>
       </c>
       <c r="G27">
         <v>9734007.100000</v>
@@ -28762,19 +28762,19 @@
         <v>28</v>
       </c>
       <c r="B28">
+        <v>2677951.600000</v>
+      </c>
+      <c r="C28">
+        <v>2984006.300000</v>
+      </c>
+      <c r="D28">
+        <v>208502.700000</v>
+      </c>
+      <c r="E28">
+        <v>744869.300000</v>
+      </c>
+      <c r="F28">
         <v>22348744.900000</v>
-      </c>
-      <c r="C28">
-        <v>2677951.600000</v>
-      </c>
-      <c r="D28">
-        <v>744869.300000</v>
-      </c>
-      <c r="E28">
-        <v>2984006.300000</v>
-      </c>
-      <c r="F28">
-        <v>208502.700000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -28782,19 +28782,19 @@
         <v>29</v>
       </c>
       <c r="B29">
+        <v>3387358.700000</v>
+      </c>
+      <c r="C29">
+        <v>3817033.300000</v>
+      </c>
+      <c r="D29">
+        <v>537600.700000</v>
+      </c>
+      <c r="E29">
+        <v>1288736.900000</v>
+      </c>
+      <c r="F29">
         <v>23209022.200000</v>
-      </c>
-      <c r="C29">
-        <v>3387358.700000</v>
-      </c>
-      <c r="D29">
-        <v>1288736.900000</v>
-      </c>
-      <c r="E29">
-        <v>3817033.300000</v>
-      </c>
-      <c r="F29">
-        <v>537600.700000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -28802,19 +28802,19 @@
         <v>30</v>
       </c>
       <c r="B30">
+        <v>2885322.700000</v>
+      </c>
+      <c r="C30">
+        <v>2321027.900000</v>
+      </c>
+      <c r="D30">
+        <v>1010772.000000</v>
+      </c>
+      <c r="E30">
+        <v>373936.700000</v>
+      </c>
+      <c r="F30">
         <v>22716848.400000</v>
-      </c>
-      <c r="C30">
-        <v>2885322.700000</v>
-      </c>
-      <c r="D30">
-        <v>373936.700000</v>
-      </c>
-      <c r="E30">
-        <v>2321027.900000</v>
-      </c>
-      <c r="F30">
-        <v>1010772.000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -28822,19 +28822,19 @@
         <v>31</v>
       </c>
       <c r="B31">
+        <v>2139142.700000</v>
+      </c>
+      <c r="C31">
+        <v>3655489.900000</v>
+      </c>
+      <c r="D31">
+        <v>519916.800000</v>
+      </c>
+      <c r="E31">
+        <v>326859.600000</v>
+      </c>
+      <c r="F31">
         <v>21567351.700000</v>
-      </c>
-      <c r="C31">
-        <v>2139142.700000</v>
-      </c>
-      <c r="D31">
-        <v>326859.600000</v>
-      </c>
-      <c r="E31">
-        <v>3655489.900000</v>
-      </c>
-      <c r="F31">
-        <v>519916.800000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -28842,19 +28842,19 @@
         <v>32</v>
       </c>
       <c r="B32">
+        <v>1566120.000000</v>
+      </c>
+      <c r="C32">
+        <v>2232489.000000</v>
+      </c>
+      <c r="D32">
+        <v>390119.900000</v>
+      </c>
+      <c r="E32">
+        <v>180150.200000</v>
+      </c>
+      <c r="F32">
         <v>24297393.100000</v>
-      </c>
-      <c r="C32">
-        <v>1566120.000000</v>
-      </c>
-      <c r="D32">
-        <v>180150.200000</v>
-      </c>
-      <c r="E32">
-        <v>2232489.000000</v>
-      </c>
-      <c r="F32">
-        <v>390119.900000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -28862,19 +28862,19 @@
         <v>33</v>
       </c>
       <c r="B33">
+        <v>3880082.300000</v>
+      </c>
+      <c r="C33">
+        <v>3452960.400000</v>
+      </c>
+      <c r="D33">
+        <v>236288.400000</v>
+      </c>
+      <c r="E33">
+        <v>165033.900000</v>
+      </c>
+      <c r="F33">
         <v>23358704.000000</v>
-      </c>
-      <c r="C33">
-        <v>3880082.300000</v>
-      </c>
-      <c r="D33">
-        <v>165033.900000</v>
-      </c>
-      <c r="E33">
-        <v>3452960.400000</v>
-      </c>
-      <c r="F33">
-        <v>236288.400000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -28882,19 +28882,19 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>888317.500000</v>
+      </c>
+      <c r="C34">
+        <v>642778.500000</v>
+      </c>
+      <c r="D34">
+        <v>58376.900000</v>
+      </c>
+      <c r="E34">
+        <v>213994.000000</v>
+      </c>
+      <c r="F34">
         <v>8455516.100000</v>
-      </c>
-      <c r="C34">
-        <v>888317.500000</v>
-      </c>
-      <c r="D34">
-        <v>213994.000000</v>
-      </c>
-      <c r="E34">
-        <v>642778.500000</v>
-      </c>
-      <c r="F34">
-        <v>58376.900000</v>
       </c>
     </row>
   </sheetData>
@@ -28937,19 +28937,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>73.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="C2">
-        <v>8.000000</v>
+        <v>20.000000</v>
       </c>
       <c r="D2">
         <v>1.000000</v>
       </c>
       <c r="E2">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
       <c r="F2">
-        <v>1.000000</v>
+        <v>73.000000</v>
       </c>
       <c r="G2">
         <v>2.000000</v>
@@ -28960,16 +28960,16 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>9.000000</v>
+      </c>
+      <c r="C3">
+        <v>22.000000</v>
+      </c>
+      <c r="D3">
+        <v>2.000000</v>
+      </c>
+      <c r="F3">
         <v>109.000000</v>
-      </c>
-      <c r="C3">
-        <v>9.000000</v>
-      </c>
-      <c r="E3">
-        <v>22.000000</v>
-      </c>
-      <c r="F3">
-        <v>2.000000</v>
       </c>
       <c r="G3">
         <v>11.000000</v>
@@ -28980,16 +28980,16 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>11.000000</v>
+      </c>
+      <c r="C4">
+        <v>23.000000</v>
+      </c>
+      <c r="D4">
+        <v>3.000000</v>
+      </c>
+      <c r="F4">
         <v>117.000000</v>
-      </c>
-      <c r="C4">
-        <v>11.000000</v>
-      </c>
-      <c r="E4">
-        <v>23.000000</v>
-      </c>
-      <c r="F4">
-        <v>3.000000</v>
       </c>
       <c r="G4">
         <v>6.000000</v>
@@ -29000,19 +29000,19 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>12.000000</v>
+      </c>
+      <c r="C5">
+        <v>24.000000</v>
+      </c>
+      <c r="D5">
+        <v>4.000000</v>
+      </c>
+      <c r="E5">
+        <v>1.000000</v>
+      </c>
+      <c r="F5">
         <v>136.000000</v>
-      </c>
-      <c r="C5">
-        <v>12.000000</v>
-      </c>
-      <c r="D5">
-        <v>1.000000</v>
-      </c>
-      <c r="E5">
-        <v>24.000000</v>
-      </c>
-      <c r="F5">
-        <v>4.000000</v>
       </c>
       <c r="G5">
         <v>10.000000</v>
@@ -29023,16 +29023,16 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>18.000000</v>
+      </c>
+      <c r="C6">
+        <v>48.000000</v>
+      </c>
+      <c r="D6">
+        <v>9.000000</v>
+      </c>
+      <c r="F6">
         <v>280.000000</v>
-      </c>
-      <c r="C6">
-        <v>18.000000</v>
-      </c>
-      <c r="E6">
-        <v>48.000000</v>
-      </c>
-      <c r="F6">
-        <v>9.000000</v>
       </c>
       <c r="G6">
         <v>43.000000</v>
@@ -29043,16 +29043,16 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>22.000000</v>
+      </c>
+      <c r="C7">
+        <v>50.000000</v>
+      </c>
+      <c r="D7">
+        <v>11.000000</v>
+      </c>
+      <c r="F7">
         <v>187.000000</v>
-      </c>
-      <c r="C7">
-        <v>22.000000</v>
-      </c>
-      <c r="E7">
-        <v>50.000000</v>
-      </c>
-      <c r="F7">
-        <v>11.000000</v>
       </c>
       <c r="G7">
         <v>24.000000</v>
@@ -29063,16 +29063,16 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <v>29.000000</v>
+      </c>
+      <c r="C8">
+        <v>59.000000</v>
+      </c>
+      <c r="D8">
+        <v>8.000000</v>
+      </c>
+      <c r="F8">
         <v>238.000000</v>
-      </c>
-      <c r="C8">
-        <v>29.000000</v>
-      </c>
-      <c r="E8">
-        <v>59.000000</v>
-      </c>
-      <c r="F8">
-        <v>8.000000</v>
       </c>
       <c r="G8">
         <v>32.000000</v>
@@ -29083,19 +29083,19 @@
         <v>9</v>
       </c>
       <c r="B9">
+        <v>23.000000</v>
+      </c>
+      <c r="C9">
+        <v>46.000000</v>
+      </c>
+      <c r="D9">
+        <v>8.000000</v>
+      </c>
+      <c r="E9">
+        <v>2.000000</v>
+      </c>
+      <c r="F9">
         <v>213.000000</v>
-      </c>
-      <c r="C9">
-        <v>23.000000</v>
-      </c>
-      <c r="D9">
-        <v>2.000000</v>
-      </c>
-      <c r="E9">
-        <v>46.000000</v>
-      </c>
-      <c r="F9">
-        <v>8.000000</v>
       </c>
       <c r="G9">
         <v>44.000000</v>
@@ -29106,16 +29106,16 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>26.000000</v>
+      </c>
+      <c r="C10">
+        <v>67.000000</v>
+      </c>
+      <c r="D10">
+        <v>16.000000</v>
+      </c>
+      <c r="F10">
         <v>253.000000</v>
-      </c>
-      <c r="C10">
-        <v>26.000000</v>
-      </c>
-      <c r="E10">
-        <v>67.000000</v>
-      </c>
-      <c r="F10">
-        <v>16.000000</v>
       </c>
       <c r="G10">
         <v>61.000000</v>
@@ -29126,19 +29126,19 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>37.000000</v>
+      </c>
+      <c r="C11">
+        <v>80.000000</v>
+      </c>
+      <c r="D11">
+        <v>29.000000</v>
+      </c>
+      <c r="E11">
+        <v>1.000000</v>
+      </c>
+      <c r="F11">
         <v>305.000000</v>
-      </c>
-      <c r="C11">
-        <v>37.000000</v>
-      </c>
-      <c r="D11">
-        <v>1.000000</v>
-      </c>
-      <c r="E11">
-        <v>80.000000</v>
-      </c>
-      <c r="F11">
-        <v>29.000000</v>
       </c>
       <c r="G11">
         <v>57.000000</v>
@@ -29149,19 +29149,19 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>47.000000</v>
+      </c>
+      <c r="C12">
+        <v>102.000000</v>
+      </c>
+      <c r="D12">
+        <v>28.000000</v>
+      </c>
+      <c r="E12">
+        <v>4.000000</v>
+      </c>
+      <c r="F12">
         <v>376.000000</v>
-      </c>
-      <c r="C12">
-        <v>47.000000</v>
-      </c>
-      <c r="D12">
-        <v>4.000000</v>
-      </c>
-      <c r="E12">
-        <v>102.000000</v>
-      </c>
-      <c r="F12">
-        <v>28.000000</v>
       </c>
       <c r="G12">
         <v>101.000000</v>
@@ -29172,19 +29172,19 @@
         <v>13</v>
       </c>
       <c r="B13">
+        <v>28.000000</v>
+      </c>
+      <c r="C13">
+        <v>74.000000</v>
+      </c>
+      <c r="D13">
+        <v>18.000000</v>
+      </c>
+      <c r="E13">
+        <v>6.000000</v>
+      </c>
+      <c r="F13">
         <v>259.000000</v>
-      </c>
-      <c r="C13">
-        <v>28.000000</v>
-      </c>
-      <c r="D13">
-        <v>6.000000</v>
-      </c>
-      <c r="E13">
-        <v>74.000000</v>
-      </c>
-      <c r="F13">
-        <v>18.000000</v>
       </c>
       <c r="G13">
         <v>83.000000</v>
@@ -29195,19 +29195,19 @@
         <v>14</v>
       </c>
       <c r="B14">
+        <v>32.000000</v>
+      </c>
+      <c r="C14">
+        <v>72.000000</v>
+      </c>
+      <c r="D14">
+        <v>20.000000</v>
+      </c>
+      <c r="E14">
+        <v>7.000000</v>
+      </c>
+      <c r="F14">
         <v>260.000000</v>
-      </c>
-      <c r="C14">
-        <v>32.000000</v>
-      </c>
-      <c r="D14">
-        <v>7.000000</v>
-      </c>
-      <c r="E14">
-        <v>72.000000</v>
-      </c>
-      <c r="F14">
-        <v>20.000000</v>
       </c>
       <c r="G14">
         <v>86.000000</v>
@@ -29218,19 +29218,19 @@
         <v>15</v>
       </c>
       <c r="B15">
+        <v>35.000000</v>
+      </c>
+      <c r="C15">
+        <v>121.000000</v>
+      </c>
+      <c r="D15">
+        <v>21.000000</v>
+      </c>
+      <c r="E15">
+        <v>11.000000</v>
+      </c>
+      <c r="F15">
         <v>320.000000</v>
-      </c>
-      <c r="C15">
-        <v>35.000000</v>
-      </c>
-      <c r="D15">
-        <v>11.000000</v>
-      </c>
-      <c r="E15">
-        <v>121.000000</v>
-      </c>
-      <c r="F15">
-        <v>21.000000</v>
       </c>
       <c r="G15">
         <v>104.000000</v>
@@ -29241,19 +29241,19 @@
         <v>16</v>
       </c>
       <c r="B16">
+        <v>34.000000</v>
+      </c>
+      <c r="C16">
+        <v>104.000000</v>
+      </c>
+      <c r="D16">
+        <v>24.000000</v>
+      </c>
+      <c r="E16">
+        <v>13.000000</v>
+      </c>
+      <c r="F16">
         <v>330.000000</v>
-      </c>
-      <c r="C16">
-        <v>34.000000</v>
-      </c>
-      <c r="D16">
-        <v>13.000000</v>
-      </c>
-      <c r="E16">
-        <v>104.000000</v>
-      </c>
-      <c r="F16">
-        <v>24.000000</v>
       </c>
       <c r="G16">
         <v>104.000000</v>
@@ -29264,19 +29264,19 @@
         <v>17</v>
       </c>
       <c r="B17">
+        <v>63.000000</v>
+      </c>
+      <c r="C17">
+        <v>152.000000</v>
+      </c>
+      <c r="D17">
+        <v>38.000000</v>
+      </c>
+      <c r="E17">
+        <v>15.000000</v>
+      </c>
+      <c r="F17">
         <v>477.000000</v>
-      </c>
-      <c r="C17">
-        <v>63.000000</v>
-      </c>
-      <c r="D17">
-        <v>15.000000</v>
-      </c>
-      <c r="E17">
-        <v>152.000000</v>
-      </c>
-      <c r="F17">
-        <v>38.000000</v>
       </c>
       <c r="G17">
         <v>182.000000</v>
@@ -29287,19 +29287,19 @@
         <v>18</v>
       </c>
       <c r="B18">
+        <v>65.000000</v>
+      </c>
+      <c r="C18">
+        <v>121.000000</v>
+      </c>
+      <c r="D18">
+        <v>24.000000</v>
+      </c>
+      <c r="E18">
+        <v>14.000000</v>
+      </c>
+      <c r="F18">
         <v>471.000000</v>
-      </c>
-      <c r="C18">
-        <v>65.000000</v>
-      </c>
-      <c r="D18">
-        <v>14.000000</v>
-      </c>
-      <c r="E18">
-        <v>121.000000</v>
-      </c>
-      <c r="F18">
-        <v>24.000000</v>
       </c>
       <c r="G18">
         <v>200.000000</v>
@@ -29310,19 +29310,19 @@
         <v>19</v>
       </c>
       <c r="B19">
+        <v>66.000000</v>
+      </c>
+      <c r="C19">
+        <v>136.000000</v>
+      </c>
+      <c r="D19">
+        <v>28.000000</v>
+      </c>
+      <c r="E19">
+        <v>18.000000</v>
+      </c>
+      <c r="F19">
         <v>566.000000</v>
-      </c>
-      <c r="C19">
-        <v>66.000000</v>
-      </c>
-      <c r="D19">
-        <v>18.000000</v>
-      </c>
-      <c r="E19">
-        <v>136.000000</v>
-      </c>
-      <c r="F19">
-        <v>28.000000</v>
       </c>
       <c r="G19">
         <v>188.000000</v>
@@ -29333,19 +29333,19 @@
         <v>20</v>
       </c>
       <c r="B20">
+        <v>81.000000</v>
+      </c>
+      <c r="C20">
+        <v>137.000000</v>
+      </c>
+      <c r="D20">
+        <v>36.000000</v>
+      </c>
+      <c r="E20">
+        <v>7.000000</v>
+      </c>
+      <c r="F20">
         <v>702.000000</v>
-      </c>
-      <c r="C20">
-        <v>81.000000</v>
-      </c>
-      <c r="D20">
-        <v>7.000000</v>
-      </c>
-      <c r="E20">
-        <v>137.000000</v>
-      </c>
-      <c r="F20">
-        <v>36.000000</v>
       </c>
       <c r="G20">
         <v>185.000000</v>
@@ -29356,19 +29356,19 @@
         <v>21</v>
       </c>
       <c r="B21">
+        <v>65.000000</v>
+      </c>
+      <c r="C21">
+        <v>149.000000</v>
+      </c>
+      <c r="D21">
+        <v>30.000000</v>
+      </c>
+      <c r="E21">
+        <v>13.000000</v>
+      </c>
+      <c r="F21">
         <v>733.000000</v>
-      </c>
-      <c r="C21">
-        <v>65.000000</v>
-      </c>
-      <c r="D21">
-        <v>13.000000</v>
-      </c>
-      <c r="E21">
-        <v>149.000000</v>
-      </c>
-      <c r="F21">
-        <v>30.000000</v>
       </c>
       <c r="G21">
         <v>254.000000</v>
@@ -29379,19 +29379,19 @@
         <v>22</v>
       </c>
       <c r="B22">
+        <v>233.000000</v>
+      </c>
+      <c r="C22">
+        <v>455.000000</v>
+      </c>
+      <c r="D22">
+        <v>103.000000</v>
+      </c>
+      <c r="E22">
+        <v>45.000000</v>
+      </c>
+      <c r="F22">
         <v>1625.000000</v>
-      </c>
-      <c r="C22">
-        <v>233.000000</v>
-      </c>
-      <c r="D22">
-        <v>45.000000</v>
-      </c>
-      <c r="E22">
-        <v>455.000000</v>
-      </c>
-      <c r="F22">
-        <v>103.000000</v>
       </c>
       <c r="G22">
         <v>608.000000</v>
@@ -29402,19 +29402,19 @@
         <v>23</v>
       </c>
       <c r="B23">
+        <v>265.000000</v>
+      </c>
+      <c r="C23">
+        <v>457.000000</v>
+      </c>
+      <c r="D23">
+        <v>114.000000</v>
+      </c>
+      <c r="E23">
+        <v>53.000000</v>
+      </c>
+      <c r="F23">
         <v>1901.000000</v>
-      </c>
-      <c r="C23">
-        <v>265.000000</v>
-      </c>
-      <c r="D23">
-        <v>53.000000</v>
-      </c>
-      <c r="E23">
-        <v>457.000000</v>
-      </c>
-      <c r="F23">
-        <v>114.000000</v>
       </c>
       <c r="G23">
         <v>824.000000</v>
@@ -29425,19 +29425,19 @@
         <v>24</v>
       </c>
       <c r="B24">
+        <v>345.000000</v>
+      </c>
+      <c r="C24">
+        <v>520.000000</v>
+      </c>
+      <c r="D24">
+        <v>144.000000</v>
+      </c>
+      <c r="E24">
+        <v>42.000000</v>
+      </c>
+      <c r="F24">
         <v>2364.000000</v>
-      </c>
-      <c r="C24">
-        <v>345.000000</v>
-      </c>
-      <c r="D24">
-        <v>42.000000</v>
-      </c>
-      <c r="E24">
-        <v>520.000000</v>
-      </c>
-      <c r="F24">
-        <v>144.000000</v>
       </c>
       <c r="G24">
         <v>1164.000000</v>
@@ -29448,19 +29448,19 @@
         <v>25</v>
       </c>
       <c r="B25">
+        <v>631.000000</v>
+      </c>
+      <c r="C25">
+        <v>1004.000000</v>
+      </c>
+      <c r="D25">
+        <v>310.000000</v>
+      </c>
+      <c r="E25">
+        <v>86.000000</v>
+      </c>
+      <c r="F25">
         <v>4991.000000</v>
-      </c>
-      <c r="C25">
-        <v>631.000000</v>
-      </c>
-      <c r="D25">
-        <v>86.000000</v>
-      </c>
-      <c r="E25">
-        <v>1004.000000</v>
-      </c>
-      <c r="F25">
-        <v>310.000000</v>
       </c>
       <c r="G25">
         <v>2589.000000</v>
@@ -29471,19 +29471,19 @@
         <v>26</v>
       </c>
       <c r="B26">
+        <v>493.000000</v>
+      </c>
+      <c r="C26">
+        <v>897.000000</v>
+      </c>
+      <c r="D26">
+        <v>263.000000</v>
+      </c>
+      <c r="E26">
+        <v>83.000000</v>
+      </c>
+      <c r="F26">
         <v>4944.000000</v>
-      </c>
-      <c r="C26">
-        <v>493.000000</v>
-      </c>
-      <c r="D26">
-        <v>83.000000</v>
-      </c>
-      <c r="E26">
-        <v>897.000000</v>
-      </c>
-      <c r="F26">
-        <v>263.000000</v>
       </c>
       <c r="G26">
         <v>2205.000000</v>
@@ -29494,19 +29494,19 @@
         <v>27</v>
       </c>
       <c r="B27">
+        <v>914.000000</v>
+      </c>
+      <c r="C27">
+        <v>1604.000000</v>
+      </c>
+      <c r="D27">
+        <v>502.000000</v>
+      </c>
+      <c r="E27">
+        <v>161.000000</v>
+      </c>
+      <c r="F27">
         <v>10515.000000</v>
-      </c>
-      <c r="C27">
-        <v>914.000000</v>
-      </c>
-      <c r="D27">
-        <v>161.000000</v>
-      </c>
-      <c r="E27">
-        <v>1604.000000</v>
-      </c>
-      <c r="F27">
-        <v>502.000000</v>
       </c>
       <c r="G27">
         <v>4042.000000</v>
@@ -29517,19 +29517,19 @@
         <v>28</v>
       </c>
       <c r="B28">
+        <v>2357.000000</v>
+      </c>
+      <c r="C28">
+        <v>3209.000000</v>
+      </c>
+      <c r="D28">
+        <v>978.000000</v>
+      </c>
+      <c r="E28">
+        <v>479.000000</v>
+      </c>
+      <c r="F28">
         <v>18298.000000</v>
-      </c>
-      <c r="C28">
-        <v>2357.000000</v>
-      </c>
-      <c r="D28">
-        <v>479.000000</v>
-      </c>
-      <c r="E28">
-        <v>3209.000000</v>
-      </c>
-      <c r="F28">
-        <v>978.000000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -29537,19 +29537,19 @@
         <v>29</v>
       </c>
       <c r="B29">
+        <v>2057.000000</v>
+      </c>
+      <c r="C29">
+        <v>3499.000000</v>
+      </c>
+      <c r="D29">
+        <v>923.000000</v>
+      </c>
+      <c r="E29">
+        <v>475.000000</v>
+      </c>
+      <c r="F29">
         <v>19303.000000</v>
-      </c>
-      <c r="C29">
-        <v>2057.000000</v>
-      </c>
-      <c r="D29">
-        <v>475.000000</v>
-      </c>
-      <c r="E29">
-        <v>3499.000000</v>
-      </c>
-      <c r="F29">
-        <v>923.000000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -29557,19 +29557,19 @@
         <v>30</v>
       </c>
       <c r="B30">
+        <v>1671.000000</v>
+      </c>
+      <c r="C30">
+        <v>3346.000000</v>
+      </c>
+      <c r="D30">
+        <v>779.000000</v>
+      </c>
+      <c r="E30">
+        <v>299.000000</v>
+      </c>
+      <c r="F30">
         <v>15877.000000</v>
-      </c>
-      <c r="C30">
-        <v>1671.000000</v>
-      </c>
-      <c r="D30">
-        <v>299.000000</v>
-      </c>
-      <c r="E30">
-        <v>3346.000000</v>
-      </c>
-      <c r="F30">
-        <v>779.000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -29577,19 +29577,19 @@
         <v>31</v>
       </c>
       <c r="B31">
+        <v>2556.000000</v>
+      </c>
+      <c r="C31">
+        <v>5286.000000</v>
+      </c>
+      <c r="D31">
+        <v>1246.000000</v>
+      </c>
+      <c r="E31">
+        <v>396.000000</v>
+      </c>
+      <c r="F31">
         <v>20870.000000</v>
-      </c>
-      <c r="C31">
-        <v>2556.000000</v>
-      </c>
-      <c r="D31">
-        <v>396.000000</v>
-      </c>
-      <c r="E31">
-        <v>5286.000000</v>
-      </c>
-      <c r="F31">
-        <v>1246.000000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -29597,19 +29597,19 @@
         <v>32</v>
       </c>
       <c r="B32">
+        <v>3590.000000</v>
+      </c>
+      <c r="C32">
+        <v>9275.000000</v>
+      </c>
+      <c r="D32">
+        <v>1908.000000</v>
+      </c>
+      <c r="E32">
+        <v>643.000000</v>
+      </c>
+      <c r="F32">
         <v>41310.000000</v>
-      </c>
-      <c r="C32">
-        <v>3590.000000</v>
-      </c>
-      <c r="D32">
-        <v>643.000000</v>
-      </c>
-      <c r="E32">
-        <v>9275.000000</v>
-      </c>
-      <c r="F32">
-        <v>1908.000000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -29617,19 +29617,19 @@
         <v>33</v>
       </c>
       <c r="B33">
+        <v>1591.000000</v>
+      </c>
+      <c r="C33">
+        <v>5096.000000</v>
+      </c>
+      <c r="D33">
+        <v>1014.000000</v>
+      </c>
+      <c r="E33">
+        <v>275.000000</v>
+      </c>
+      <c r="F33">
         <v>19295.000000</v>
-      </c>
-      <c r="C33">
-        <v>1591.000000</v>
-      </c>
-      <c r="D33">
-        <v>275.000000</v>
-      </c>
-      <c r="E33">
-        <v>5096.000000</v>
-      </c>
-      <c r="F33">
-        <v>1014.000000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -29637,19 +29637,19 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>845.000000</v>
+      </c>
+      <c r="C34">
+        <v>2901.000000</v>
+      </c>
+      <c r="D34">
+        <v>508.000000</v>
+      </c>
+      <c r="E34">
+        <v>146.000000</v>
+      </c>
+      <c r="F34">
         <v>10773.000000</v>
-      </c>
-      <c r="C34">
-        <v>845.000000</v>
-      </c>
-      <c r="D34">
-        <v>146.000000</v>
-      </c>
-      <c r="E34">
-        <v>2901.000000</v>
-      </c>
-      <c r="F34">
-        <v>508.000000</v>
       </c>
     </row>
   </sheetData>
